--- a/Old/RearVD.xlsx
+++ b/Old/RearVD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6FAD1B-87F9-49B2-8527-306DBF0471B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BDC8D0-6F03-488F-BBAC-20C6A78C8F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="7956" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OutputForces" sheetId="1" r:id="rId1"/>
@@ -1070,13 +1070,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1140,22 +1152,22 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>-59.135406112003601</v>
+        <v>59.135406112003601</v>
       </c>
       <c r="H2">
-        <v>200.25132491294599</v>
+        <v>-200.25132491294599</v>
       </c>
       <c r="I2">
-        <v>-182.591149437768</v>
+        <v>182.591149437768</v>
       </c>
       <c r="J2">
-        <v>-743.212781566697</v>
+        <v>743.212781566697</v>
       </c>
       <c r="K2">
-        <v>1068.1737277131399</v>
+        <v>-1068.1737277131399</v>
       </c>
       <c r="L2" s="1">
-        <v>9.1612915170680105E-12</v>
+        <v>-9.1612915170680105E-12</v>
       </c>
       <c r="M2">
         <v>244.85769893052901</v>
@@ -1184,22 +1196,22 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>-782.97989744399797</v>
+        <v>782.97989744399797</v>
       </c>
       <c r="H3">
-        <v>572.50061513668697</v>
+        <v>-572.50061513668697</v>
       </c>
       <c r="I3">
-        <v>2167.8651733656202</v>
+        <v>-2167.8651733656202</v>
       </c>
       <c r="J3">
-        <v>-2122.4985309691501</v>
+        <v>2122.4985309691501</v>
       </c>
       <c r="K3">
-        <v>1068.2826776264901</v>
+        <v>-1068.2826776264901</v>
       </c>
       <c r="L3">
-        <v>-198.952618202011</v>
+        <v>198.952618202011</v>
       </c>
       <c r="M3">
         <v>1249.0025217602399</v>
@@ -1228,22 +1240,22 @@
         <v>-200</v>
       </c>
       <c r="G4">
-        <v>111.76858773235701</v>
+        <v>-111.76858773235701</v>
       </c>
       <c r="H4">
-        <v>130.72552415847699</v>
+        <v>-130.72552415847699</v>
       </c>
       <c r="I4">
-        <v>-16.682174690643201</v>
+        <v>16.682174690643201</v>
       </c>
       <c r="J4">
-        <v>-636.38667119867</v>
+        <v>636.38667119867</v>
       </c>
       <c r="K4">
-        <v>1068.30499605913</v>
+        <v>-1068.30499605913</v>
       </c>
       <c r="L4">
-        <v>-239.70814036853201</v>
+        <v>239.70814036853201</v>
       </c>
       <c r="M4">
         <v>96.946732237505202</v>
@@ -1272,22 +1284,22 @@
         <v>-200</v>
       </c>
       <c r="G5">
-        <v>-1335.92039493163</v>
+        <v>1335.92039493163</v>
       </c>
       <c r="H5">
-        <v>875.22410460596097</v>
+        <v>-875.22410460596097</v>
       </c>
       <c r="I5">
-        <v>4684.2304709161399</v>
+        <v>-4684.2304709161399</v>
       </c>
       <c r="J5">
-        <v>-3394.9581700035701</v>
+        <v>3394.9581700035701</v>
       </c>
       <c r="K5">
-        <v>1068.5228958858299</v>
+        <v>-1068.5228958858299</v>
       </c>
       <c r="L5">
-        <v>-637.61337677257302</v>
+        <v>637.61337677257302</v>
       </c>
       <c r="M5">
         <v>2041.0290817325899</v>
@@ -1316,22 +1328,22 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-439.70980188227799</v>
+        <v>439.70980188227799</v>
       </c>
       <c r="H6">
-        <v>1488.9974753428</v>
+        <v>-1488.9974753428</v>
       </c>
       <c r="I6">
-        <v>1425.5946832877401</v>
+        <v>-1425.5946832877401</v>
       </c>
       <c r="J6">
-        <v>-4602.3698967318996</v>
+        <v>4602.3698967318996</v>
       </c>
       <c r="K6">
-        <v>1199.8738790150101</v>
+        <v>-1199.8738790150101</v>
       </c>
       <c r="L6" s="1">
-        <v>9.0908400598998995E-11</v>
+        <v>-9.0908400598998995E-11</v>
       </c>
       <c r="M6">
         <v>1820.67457323588</v>
@@ -1360,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1351.10819353888</v>
+        <v>1351.10819353888</v>
       </c>
       <c r="H7">
-        <v>1637.0776013995901</v>
+        <v>-1637.0776013995901</v>
       </c>
       <c r="I7">
-        <v>4275.8384419170598</v>
+        <v>-4275.8384419170598</v>
       </c>
       <c r="J7">
-        <v>-5419.7410021055703</v>
+        <v>5419.7410021055703</v>
       </c>
       <c r="K7">
-        <v>1161.3958171773299</v>
+        <v>-1161.3958171773299</v>
       </c>
       <c r="L7">
-        <v>-281.18636705878799</v>
+        <v>281.18636705878799</v>
       </c>
       <c r="M7">
         <v>2749.7001208574202</v>
@@ -1404,22 +1416,22 @@
         <v>-200</v>
       </c>
       <c r="G8">
-        <v>-268.80580803791599</v>
+        <v>268.80580803791599</v>
       </c>
       <c r="H8">
-        <v>1419.47167458833</v>
+        <v>-1419.47167458833</v>
       </c>
       <c r="I8">
-        <v>1591.5036580348701</v>
+        <v>-1591.5036580348701</v>
       </c>
       <c r="J8">
-        <v>-4495.5437863638699</v>
+        <v>4495.5437863638699</v>
       </c>
       <c r="K8">
-        <v>1200.0051473609999</v>
+        <v>-1200.0051473609999</v>
       </c>
       <c r="L8">
-        <v>-239.70814036845101</v>
+        <v>239.70814036845101</v>
       </c>
       <c r="M8">
         <v>1616.85560928224</v>
@@ -1448,22 +1460,22 @@
         <v>-200</v>
       </c>
       <c r="G9">
-        <v>-1180.20419969452</v>
+        <v>1180.20419969452</v>
       </c>
       <c r="H9">
-        <v>1567.55180064512</v>
+        <v>-1567.55180064512</v>
       </c>
       <c r="I9">
-        <v>4441.7474166641796</v>
+        <v>-4441.7474166641796</v>
       </c>
       <c r="J9">
-        <v>-5312.9148917375396</v>
+        <v>5312.9148917375396</v>
       </c>
       <c r="K9">
-        <v>1161.52708552332</v>
+        <v>-1161.52708552332</v>
       </c>
       <c r="L9">
-        <v>-520.89450742733004</v>
+        <v>520.89450742733004</v>
       </c>
       <c r="M9">
         <v>2530.9317284931799</v>
@@ -1492,22 +1504,22 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>321.438989658271</v>
+        <v>-321.438989658271</v>
       </c>
       <c r="H10">
-        <v>-1088.4948255168999</v>
+        <v>1088.4948255168999</v>
       </c>
       <c r="I10">
-        <v>-1790.7769821632801</v>
+        <v>1790.7769821632801</v>
       </c>
       <c r="J10">
-        <v>3115.9443335985002</v>
+        <v>-3115.9443335985002</v>
       </c>
       <c r="K10">
-        <v>936.473576411267</v>
+        <v>-936.473576411267</v>
       </c>
       <c r="L10" s="1">
-        <v>-7.2585817564863003E-11</v>
+        <v>7.2585817564863003E-11</v>
       </c>
       <c r="M10">
         <v>1330.95917537482</v>
@@ -1536,22 +1548,22 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-813.22971418356201</v>
+        <v>813.22971418356201</v>
       </c>
       <c r="H11">
-        <v>-184.35029120792899</v>
+        <v>184.35029120792899</v>
       </c>
       <c r="I11">
-        <v>2002.93579833166</v>
+        <v>-2002.93579833166</v>
       </c>
       <c r="J11">
-        <v>34.534387327915503</v>
+        <v>-34.534387327915503</v>
       </c>
       <c r="K11">
-        <v>975.259603337351</v>
+        <v>-975.259603337351</v>
       </c>
       <c r="L11">
-        <v>-281.18636705890401</v>
+        <v>281.18636705890401</v>
       </c>
       <c r="M11">
         <v>698.74093397262595</v>
@@ -1580,22 +1592,22 @@
         <v>-200</v>
       </c>
       <c r="G12">
-        <v>492.34298350263202</v>
+        <v>-492.34298350263202</v>
       </c>
       <c r="H12">
-        <v>-1158.02062627137</v>
+        <v>1158.02062627137</v>
       </c>
       <c r="I12">
-        <v>-1624.86800741616</v>
+        <v>1624.86800741616</v>
       </c>
       <c r="J12">
-        <v>3222.7704439665299</v>
+        <v>-3222.7704439665299</v>
       </c>
       <c r="K12">
-        <v>936.60484475726003</v>
+        <v>-936.60484475726003</v>
       </c>
       <c r="L12">
-        <v>-239.70814036861401</v>
+        <v>239.70814036861401</v>
       </c>
       <c r="M12">
         <v>1539.79638887957</v>
@@ -1624,22 +1636,22 @@
         <v>-200</v>
       </c>
       <c r="G13">
-        <v>-642.32572033920098</v>
+        <v>642.32572033920098</v>
       </c>
       <c r="H13">
-        <v>-253.876091962397</v>
+        <v>253.876091962397</v>
       </c>
       <c r="I13">
-        <v>2168.8447730787898</v>
+        <v>-2168.8447730787898</v>
       </c>
       <c r="J13">
-        <v>141.360497695943</v>
+        <v>-141.360497695943</v>
       </c>
       <c r="K13">
-        <v>975.39087168334299</v>
+        <v>-975.39087168334299</v>
       </c>
       <c r="L13">
-        <v>-520.894507427446</v>
+        <v>520.894507427446</v>
       </c>
       <c r="M13">
         <v>501.77619694052498</v>
@@ -1668,22 +1680,22 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-59.135406112003601</v>
+        <v>59.135406112003601</v>
       </c>
       <c r="H14">
-        <v>200.25132491294599</v>
+        <v>-200.25132491294599</v>
       </c>
       <c r="I14">
-        <v>-182.591149437768</v>
+        <v>182.591149437768</v>
       </c>
       <c r="J14">
-        <v>-743.212781566697</v>
+        <v>743.212781566697</v>
       </c>
       <c r="K14">
-        <v>1068.1737277131399</v>
+        <v>-1068.1737277131399</v>
       </c>
       <c r="L14" s="1">
-        <v>9.1612915170680105E-12</v>
+        <v>-9.1612915170680105E-12</v>
       </c>
       <c r="M14">
         <v>244.85769893052901</v>
@@ -1712,22 +1724,22 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>664.70908521999104</v>
+        <v>-664.70908521999104</v>
       </c>
       <c r="H15">
-        <v>-171.997965310795</v>
+        <v>171.997965310795</v>
       </c>
       <c r="I15">
-        <v>-2533.04747224116</v>
+        <v>2533.04747224116</v>
       </c>
       <c r="J15">
-        <v>636.07296783575396</v>
+        <v>-636.07296783575396</v>
       </c>
       <c r="K15">
-        <v>1068.0647777997899</v>
+        <v>-1068.0647777997899</v>
       </c>
       <c r="L15">
-        <v>198.95261820202899</v>
+        <v>-198.95261820202899</v>
       </c>
       <c r="M15">
         <v>793.31437571462402</v>
@@ -1756,22 +1768,22 @@
         <v>-200</v>
       </c>
       <c r="G16">
-        <v>111.76858773235701</v>
+        <v>-111.76858773235701</v>
       </c>
       <c r="H16">
-        <v>130.72552415847699</v>
+        <v>-130.72552415847699</v>
       </c>
       <c r="I16">
-        <v>-16.682174690643201</v>
+        <v>16.682174690643201</v>
       </c>
       <c r="J16">
-        <v>-636.38667119867</v>
+        <v>636.38667119867</v>
       </c>
       <c r="K16">
-        <v>1068.30499605913</v>
+        <v>-1068.30499605913</v>
       </c>
       <c r="L16">
-        <v>-239.70814036853201</v>
+        <v>239.70814036853201</v>
       </c>
       <c r="M16">
         <v>96.946732237505202</v>
@@ -1800,22 +1812,22 @@
         <v>-200</v>
       </c>
       <c r="G17">
-        <v>1559.4575703963401</v>
+        <v>-1559.4575703963401</v>
       </c>
       <c r="H17">
-        <v>-613.77305628900501</v>
+        <v>613.77305628900501</v>
       </c>
       <c r="I17">
-        <v>-4717.5948202974296</v>
+        <v>4717.5948202974296</v>
       </c>
       <c r="J17">
-        <v>2122.1848276062301</v>
+        <v>-2122.1848276062301</v>
       </c>
       <c r="K17">
-        <v>1068.08709623243</v>
+        <v>-1068.08709623243</v>
       </c>
       <c r="L17">
-        <v>158.197096035507</v>
+        <v>-158.197096035507</v>
       </c>
       <c r="M17">
         <v>2032.4308784842201</v>
@@ -1844,22 +1856,22 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>-439.70980188227799</v>
+        <v>439.70980188227799</v>
       </c>
       <c r="H18">
-        <v>1488.9974753428</v>
+        <v>-1488.9974753428</v>
       </c>
       <c r="I18">
-        <v>1425.5946832877401</v>
+        <v>-1425.5946832877401</v>
       </c>
       <c r="J18">
-        <v>-4602.3698967318996</v>
+        <v>4602.3698967318996</v>
       </c>
       <c r="K18">
-        <v>1199.8738790150101</v>
+        <v>-1199.8738790150101</v>
       </c>
       <c r="L18" s="1">
-        <v>9.0908400598998995E-11</v>
+        <v>-9.0908400598998995E-11</v>
       </c>
       <c r="M18">
         <v>1820.67457323588</v>
@@ -1888,22 +1900,22 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>694.95890195955496</v>
+        <v>-694.95890195955496</v>
       </c>
       <c r="H19">
-        <v>584.85294103382103</v>
+        <v>-584.85294103382103</v>
       </c>
       <c r="I19">
-        <v>-2368.1180972072002</v>
+        <v>2368.1180972072002</v>
       </c>
       <c r="J19">
-        <v>-1520.95995046131</v>
+        <v>1520.95995046131</v>
       </c>
       <c r="K19">
-        <v>1161.08785208893</v>
+        <v>-1161.08785208893</v>
       </c>
       <c r="L19">
-        <v>281.18636705892197</v>
+        <v>-281.18636705892197</v>
       </c>
       <c r="M19">
         <v>513.39898419568306</v>
@@ -1932,22 +1944,22 @@
         <v>-200</v>
       </c>
       <c r="G20">
-        <v>-268.80580803791599</v>
+        <v>268.80580803791599</v>
       </c>
       <c r="H20">
-        <v>1419.47167458833</v>
+        <v>-1419.47167458833</v>
       </c>
       <c r="I20">
-        <v>1591.5036580348701</v>
+        <v>-1591.5036580348701</v>
       </c>
       <c r="J20">
-        <v>-4495.5437863638699</v>
+        <v>4495.5437863638699</v>
       </c>
       <c r="K20">
-        <v>1200.0051473609999</v>
+        <v>-1200.0051473609999</v>
       </c>
       <c r="L20">
-        <v>-239.70814036845101</v>
+        <v>239.70814036845101</v>
       </c>
       <c r="M20">
         <v>1616.85560928224</v>
@@ -1976,22 +1988,22 @@
         <v>-200</v>
       </c>
       <c r="G21">
-        <v>865.86289580391599</v>
+        <v>-865.86289580391599</v>
       </c>
       <c r="H21">
-        <v>515.32714027935299</v>
+        <v>-515.32714027935299</v>
       </c>
       <c r="I21">
-        <v>-2202.2091224600699</v>
+        <v>2202.2091224600699</v>
       </c>
       <c r="J21">
-        <v>-1414.13384009328</v>
+        <v>1414.13384009328</v>
       </c>
       <c r="K21">
-        <v>1161.2191204349199</v>
+        <v>-1161.2191204349199</v>
       </c>
       <c r="L21">
-        <v>41.478226690380197</v>
+        <v>-41.478226690380197</v>
       </c>
       <c r="M21">
         <v>631.60494796823195</v>
@@ -2020,22 +2032,22 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>321.438989658271</v>
+        <v>-321.438989658271</v>
       </c>
       <c r="H22">
-        <v>-1088.4948255168999</v>
+        <v>1088.4948255168999</v>
       </c>
       <c r="I22">
-        <v>-1790.7769821632801</v>
+        <v>1790.7769821632801</v>
       </c>
       <c r="J22">
-        <v>3115.9443335985002</v>
+        <v>-3115.9443335985002</v>
       </c>
       <c r="K22">
-        <v>936.473576411267</v>
+        <v>-936.473576411267</v>
       </c>
       <c r="L22" s="1">
-        <v>-7.2585817564863003E-11</v>
+        <v>7.2585817564863003E-11</v>
       </c>
       <c r="M22">
         <v>1330.95917537482</v>
@@ -2064,22 +2076,22 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1232.8373813148701</v>
+        <v>-1232.8373813148701</v>
       </c>
       <c r="H23">
-        <v>-1236.5749515737</v>
+        <v>1236.5749515737</v>
       </c>
       <c r="I23">
-        <v>-4641.0207407926</v>
+        <v>4641.0207407926</v>
       </c>
       <c r="J23">
-        <v>3933.3154389721699</v>
+        <v>-3933.3154389721699</v>
       </c>
       <c r="K23">
-        <v>974.95163824894996</v>
+        <v>-974.95163824894996</v>
       </c>
       <c r="L23">
-        <v>281.18636705880601</v>
+        <v>-281.18636705880601</v>
       </c>
       <c r="M23">
         <v>2270.42873909625</v>
@@ -2108,22 +2120,22 @@
         <v>-200</v>
       </c>
       <c r="G24">
-        <v>492.34298350263202</v>
+        <v>-492.34298350263202</v>
       </c>
       <c r="H24">
-        <v>-1158.02062627137</v>
+        <v>1158.02062627137</v>
       </c>
       <c r="I24">
-        <v>-1624.86800741616</v>
+        <v>1624.86800741616</v>
       </c>
       <c r="J24">
-        <v>3222.7704439665299</v>
+        <v>-3222.7704439665299</v>
       </c>
       <c r="K24">
-        <v>936.60484475726003</v>
+        <v>-936.60484475726003</v>
       </c>
       <c r="L24">
-        <v>-239.70814036861401</v>
+        <v>239.70814036861401</v>
       </c>
       <c r="M24">
         <v>1539.79638887957</v>
@@ -2152,22 +2164,22 @@
         <v>-200</v>
       </c>
       <c r="G25">
-        <v>1403.7413751592301</v>
+        <v>-1403.7413751592301</v>
       </c>
       <c r="H25">
-        <v>-1306.1007523281701</v>
+        <v>1306.1007523281701</v>
       </c>
       <c r="I25">
-        <v>-4475.1117660454702</v>
+        <v>4475.1117660454702</v>
       </c>
       <c r="J25">
-        <v>4040.1415493402001</v>
+        <v>-4040.1415493402001</v>
       </c>
       <c r="K25">
-        <v>975.08290659494196</v>
+        <v>-975.08290659494196</v>
       </c>
       <c r="L25">
-        <v>41.478226690264698</v>
+        <v>-41.478226690264698</v>
       </c>
       <c r="M25">
         <v>2491.7802375000801</v>
@@ -2196,22 +2208,22 @@
         <v>-200</v>
       </c>
       <c r="G26">
-        <v>-1351.10819353888</v>
+        <v>-1559.4575703963401</v>
       </c>
       <c r="H26">
-        <v>-1306.1007523281701</v>
+        <v>-1637.0776013995901</v>
       </c>
       <c r="I26">
-        <v>-4717.5948202974296</v>
+        <v>-4684.2304709161399</v>
       </c>
       <c r="J26">
-        <v>-5419.7410021055703</v>
+        <v>-4040.1415493402001</v>
       </c>
       <c r="K26">
-        <v>936.473576411267</v>
+        <v>-1200.0051473609999</v>
       </c>
       <c r="L26">
-        <v>-637.61337677257302</v>
+        <v>-281.18636705892197</v>
       </c>
       <c r="M26">
         <v>96.946732237505202</v>
@@ -2240,22 +2252,22 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1559.4575703963401</v>
+        <v>1351.10819353888</v>
       </c>
       <c r="H27">
-        <v>1637.0776013995901</v>
+        <v>1306.1007523281701</v>
       </c>
       <c r="I27">
-        <v>4684.2304709161399</v>
+        <v>4717.5948202974296</v>
       </c>
       <c r="J27">
-        <v>4040.1415493402001</v>
+        <v>5419.7410021055703</v>
       </c>
       <c r="K27">
-        <v>1200.0051473609999</v>
+        <v>-936.473576411267</v>
       </c>
       <c r="L27">
-        <v>281.18636705892197</v>
+        <v>637.61337677257302</v>
       </c>
       <c r="M27">
         <v>2749.7001208574202</v>
@@ -2314,22 +2326,22 @@
         <v>36</v>
       </c>
       <c r="G31" s="4">
-        <v>275</v>
+        <v>427</v>
       </c>
       <c r="H31" s="4">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="I31" s="4">
-        <v>391</v>
+        <v>512</v>
       </c>
       <c r="J31" s="4">
-        <v>436</v>
+        <v>340</v>
       </c>
       <c r="K31" s="4">
-        <v>584</v>
+        <v>366</v>
       </c>
       <c r="L31" s="4">
-        <v>329</v>
+        <v>394</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>37</v>
@@ -2340,22 +2352,28 @@
         <v>49</v>
       </c>
       <c r="G32" s="4">
-        <v>10</v>
+        <f>25.4*5/8</f>
+        <v>15.875</v>
       </c>
       <c r="H32" s="4">
-        <v>10</v>
+        <f t="shared" ref="H32:L32" si="0">25.4*5/8</f>
+        <v>15.875</v>
       </c>
       <c r="I32" s="4">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>15.875</v>
       </c>
       <c r="J32" s="4">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>15.875</v>
       </c>
       <c r="K32" s="4">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>15.875</v>
       </c>
       <c r="L32" s="4">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>15.875</v>
       </c>
       <c r="N32" s="4"/>
     </row>
@@ -2371,27 +2389,27 @@
       </c>
       <c r="G33" s="5">
         <f>G32/2000</f>
-        <v>5.0000000000000001E-3</v>
+        <v>7.9375000000000001E-3</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" ref="H33:L33" si="0">H32/2000</f>
-        <v>5.0000000000000001E-3</v>
+        <f t="shared" ref="H33:L33" si="1">H32/2000</f>
+        <v>7.9375000000000001E-3</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.9375000000000001E-3</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.9375000000000001E-3</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.9375000000000001E-3</v>
       </c>
       <c r="L33" s="5">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <f t="shared" si="1"/>
+        <v>7.9375000000000001E-3</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>39</v>
@@ -2412,27 +2430,27 @@
       </c>
       <c r="G34" s="6">
         <f>-G26*(G31/1000)^2/(PI()^2*$C29/$C33)</f>
-        <v>9.8597628864194258E-11</v>
+        <v>2.743723029846406E-10</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" ref="H34:L34" si="1">-H26*(H31/1000)^2/(PI()^2*$C29/$C33)</f>
-        <v>9.740409755699649E-11</v>
+        <f t="shared" ref="H34:L34" si="2">-H26*(H31/1000)^2/(PI()^2*$C29/$C33)</f>
+        <v>7.0998952924869715E-11</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="1"/>
-        <v>6.9596132820373085E-10</v>
+        <f t="shared" si="2"/>
+        <v>1.1849202794913647E-9</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="1"/>
-        <v>9.9417415103819187E-10</v>
+        <f t="shared" si="2"/>
+        <v>4.5067697522301772E-10</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="1"/>
-        <v>-3.0819967582322838E-10</v>
+        <f t="shared" si="2"/>
+        <v>1.5511587080155247E-10</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="1"/>
-        <v>6.6597844211777214E-11</v>
+        <f t="shared" si="2"/>
+        <v>4.2120901712699626E-11</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>43</v>
@@ -2450,27 +2468,27 @@
       </c>
       <c r="G35" s="8">
         <f>IF(G34&gt;0,(G33-((-G34+PI() * (G33)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>0.27256543774341074</v>
+        <v>0.18071672246859799</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" ref="H35:L35" si="2">IF(H34&gt;0,(H33-((-H34+PI() * (H33)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
-        <v>0.26897363527399532</v>
+        <f t="shared" ref="H35:L35" si="3">IF(H34&gt;0,(H33-((-H34+PI() * (H33)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
+        <v>4.5582025186684944E-2</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="2"/>
-        <v>0.59147349815681216</v>
+        <f t="shared" si="3"/>
+        <v>0.89431179910125314</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="2"/>
-        <v>0.70620683311197785</v>
-      </c>
-      <c r="K35" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>Tension only</v>
+        <f t="shared" si="3"/>
+        <v>0.30386398894015082</v>
+      </c>
+      <c r="K35" s="8">
+        <f t="shared" si="3"/>
+        <v>0.10062885043120653</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="2"/>
-        <v>0.17897206333247762</v>
+        <f t="shared" si="3"/>
+        <v>2.6946897185780444E-2</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
@@ -2481,28 +2499,28 @@
         <v>46</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" ref="G36:L36" si="3">G27/$C30*$C34</f>
-        <v>1.2995479753302835E-5</v>
+        <f t="shared" ref="G36:L36" si="4">G27/$C30*$C34</f>
+        <v>1.1259234946157332E-5</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="3"/>
-        <v>1.3642313344996584E-5</v>
+        <f t="shared" si="4"/>
+        <v>1.0884172936068084E-5</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="3"/>
-        <v>3.9035253924301163E-5</v>
+        <f t="shared" si="4"/>
+        <v>3.9313290169145244E-5</v>
       </c>
       <c r="J36" s="6">
-        <f t="shared" si="3"/>
-        <v>3.3667846244501666E-5</v>
+        <f t="shared" si="4"/>
+        <v>4.5164508350879752E-5</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" si="3"/>
-        <v>1.0000042894674999E-5</v>
+        <f t="shared" si="4"/>
+        <v>-7.8039464700938912E-6</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" si="3"/>
-        <v>2.3432197254910163E-6</v>
+        <f t="shared" si="4"/>
+        <v>5.3134448064381082E-6</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
@@ -2511,27 +2529,27 @@
       </c>
       <c r="G37" s="8">
         <f>(G33-(G33^2-G36/PI())^0.5)*1000</f>
-        <v>0.43235177374368988</v>
+        <v>0.2290643314760612</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" ref="H37:L37" si="4">(H33-(H33^2-H36/PI())^0.5)*1000</f>
-        <v>0.45494589780599792</v>
+        <f t="shared" ref="H37:L37" si="5">(H33-(H33^2-H36/PI())^0.5)*1000</f>
+        <v>0.22132436685663032</v>
       </c>
       <c r="I37" s="8">
-        <f t="shared" si="4"/>
-        <v>0.87997788778614983</v>
+        <f t="shared" si="5"/>
+        <v>0.8318615817613515</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" si="4"/>
-        <v>0.70046633723363716</v>
+        <f t="shared" si="5"/>
+        <v>0.96415096691090596</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" si="4"/>
-        <v>0.32914488724355984</v>
+        <f t="shared" si="5"/>
+        <v>-0.15496436894719795</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="4"/>
-        <v>7.5151779407273828E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.10726473926748331</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
@@ -2542,28 +2560,28 @@
         <v>52</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" ref="G38:L38" si="5">MAX(G37,G35)</f>
-        <v>0.43235177374368988</v>
+        <f t="shared" ref="G38:L38" si="6">MAX(G37,G35)</f>
+        <v>0.2290643314760612</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="5"/>
-        <v>0.45494589780599792</v>
+        <f t="shared" si="6"/>
+        <v>0.22132436685663032</v>
       </c>
       <c r="I38" s="9">
-        <f t="shared" si="5"/>
-        <v>0.87997788778614983</v>
+        <f t="shared" si="6"/>
+        <v>0.89431179910125314</v>
       </c>
       <c r="J38" s="9">
-        <f t="shared" si="5"/>
-        <v>0.70620683311197785</v>
+        <f t="shared" si="6"/>
+        <v>0.96415096691090596</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" si="5"/>
-        <v>0.32914488724355984</v>
+        <f t="shared" si="6"/>
+        <v>0.10062885043120653</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="5"/>
-        <v>0.17897206333247762</v>
+        <f t="shared" si="6"/>
+        <v>0.10726473926748331</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
@@ -2584,15 +2602,15 @@
         <v>3118.9151407926802</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" ref="H41:J41" si="6">MAX(ABS(H26),ABS(H27))*$C35</f>
+        <f t="shared" ref="H41:J41" si="7">MAX(ABS(H26),ABS(H27))*$C35</f>
         <v>3274.1552027991802</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9435.1896405948592</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10839.482004211141</v>
       </c>
       <c r="K41" s="7"/>

--- a/Old/RearVD.xlsx
+++ b/Old/RearVD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BDC8D0-6F03-488F-BBAC-20C6A78C8F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9379A7-9E62-4753-AB60-D62245787111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="7956" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OutputForces" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Scenario</t>
   </si>
@@ -192,12 +192,18 @@
   </si>
   <si>
     <t>Critical Thickness/mm</t>
+  </si>
+  <si>
+    <t>Critical Thickness/in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,7 +705,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -710,6 +716,8 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1068,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2277,16 +2285,16 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
@@ -2303,14 +2311,14 @@
       <c r="C30" s="3">
         <v>240000000</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10" t="s">
+      <c r="H30" s="12"/>
+      <c r="I30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="10"/>
+      <c r="J30" s="12"/>
       <c r="K30" s="2" t="s">
         <v>33</v>
       </c>
@@ -2584,42 +2592,72 @@
         <v>0.10726473926748331</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G40" s="10" t="s">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E39" s="10"/>
+      <c r="F39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="11">
+        <f>G38/25.4</f>
+        <v>9.0182807667740627E-3</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" ref="H39:L39" si="7">H38/25.4</f>
+        <v>8.7135577502610358E-3</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="7"/>
+        <v>3.5209125948868235E-2</v>
+      </c>
+      <c r="J39" s="11">
+        <f t="shared" si="7"/>
+        <v>3.7958699484681342E-2</v>
+      </c>
+      <c r="K39" s="11">
+        <f t="shared" si="7"/>
+        <v>3.9617657650081314E-3</v>
+      </c>
+      <c r="L39" s="11">
+        <f t="shared" si="7"/>
+        <v>4.2230212310032803E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G41" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="G41" s="7">
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G42" s="7">
         <f>MAX(ABS(G26),ABS(G27))*$C35</f>
         <v>3118.9151407926802</v>
       </c>
-      <c r="H41" s="7">
-        <f t="shared" ref="H41:J41" si="7">MAX(ABS(H26),ABS(H27))*$C35</f>
+      <c r="H42" s="7">
+        <f t="shared" ref="H42:J42" si="8">MAX(ABS(H26),ABS(H27))*$C35</f>
         <v>3274.1552027991802</v>
       </c>
-      <c r="I41" s="7">
-        <f t="shared" si="7"/>
+      <c r="I42" s="7">
+        <f t="shared" si="8"/>
         <v>9435.1896405948592</v>
       </c>
-      <c r="J41" s="7">
-        <f t="shared" si="7"/>
+      <c r="J42" s="7">
+        <f t="shared" si="8"/>
         <v>10839.482004211141</v>
       </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7">
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7">
         <f>MAX(ABS(M26),ABS(M27))*$C35</f>
         <v>5499.4002417148404</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N42" s="7">
         <f>MAX(ABS(N26),ABS(N27))*$C35</f>
         <v>18777.985864804879</v>
       </c>
@@ -2629,7 +2667,7 @@
     <mergeCell ref="G28:N28"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G40:N40"/>
+    <mergeCell ref="G41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
